--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -103,10 +103,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>friends</t>
   </si>
   <si>
     <t>safe</t>
@@ -1226,25 +1226,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6566523605150214</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L18">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="N18">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O18">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>80</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1252,25 +1252,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="N19">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1460,25 +1460,25 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5335365853658537</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="L27">
         <v>175</v>
       </c>
       <c r="M27">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="10:17">
